--- a/data/input/absenteeism_data_29.xlsx
+++ b/data/input/absenteeism_data_29.xlsx
@@ -476,214 +476,214 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67958</v>
+        <v>32418</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fernanda Rocha</t>
+          <t>Dra. Sophie Fernandes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45086</v>
+        <v>45081</v>
       </c>
       <c r="G2" t="n">
-        <v>4766.68</v>
+        <v>10623.62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>48834</v>
+        <v>81845</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ian Ribeiro</t>
+          <t>Evelyn Barbosa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45100</v>
+        <v>45080</v>
       </c>
       <c r="G3" t="n">
-        <v>5760.24</v>
+        <v>5450.52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>79134</v>
+        <v>81336</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Enzo Dias</t>
+          <t>Luana Peixoto</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45082</v>
+        <v>45078</v>
       </c>
       <c r="G4" t="n">
-        <v>6837.73</v>
+        <v>9537.33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>45204</v>
+        <v>81340</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Camila Mendes</t>
+          <t>Raul Mendes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45104</v>
+        <v>45083</v>
       </c>
       <c r="G5" t="n">
-        <v>6147.44</v>
+        <v>7677.22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>39426</v>
+        <v>17944</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Valentina Monteiro</t>
+          <t>Clarice das Neves</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45095</v>
+        <v>45093</v>
       </c>
       <c r="G6" t="n">
-        <v>4418.26</v>
+        <v>4250.79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>81791</v>
+        <v>38226</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Eduarda Correia</t>
+          <t>Noah Farias</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45088</v>
+        <v>45092</v>
       </c>
       <c r="G7" t="n">
-        <v>10278.55</v>
+        <v>6580.79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>41531</v>
+        <v>897</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kaique da Cruz</t>
+          <t>Caio Souza</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45081</v>
+        <v>45098</v>
       </c>
       <c r="G8" t="n">
-        <v>4614.63</v>
+        <v>4393.48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>35113</v>
+        <v>98845</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dr. Francisco da Conceição</t>
+          <t>Sarah da Paz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,60 +693,60 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45098</v>
+        <v>45103</v>
       </c>
       <c r="G9" t="n">
-        <v>8710.559999999999</v>
+        <v>6110.94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>90922</v>
+        <v>92065</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. Lucas Gabriel Nunes</t>
+          <t>Augusto Monteiro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45078</v>
+        <v>45086</v>
       </c>
       <c r="G10" t="n">
-        <v>11128.75</v>
+        <v>12409.29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>73571</v>
+        <v>35168</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Valentina Barros</t>
+          <t>Thomas Campos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45098</v>
+        <v>45100</v>
       </c>
       <c r="G11" t="n">
-        <v>7530.04</v>
+        <v>8589.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_29.xlsx
+++ b/data/input/absenteeism_data_29.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>32418</v>
+        <v>56472</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dra. Sophie Fernandes</t>
+          <t>Antônio Carvalho</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45081</v>
+        <v>45095</v>
       </c>
       <c r="G2" t="n">
-        <v>10623.62</v>
+        <v>7049.48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>81845</v>
+        <v>84746</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Evelyn Barbosa</t>
+          <t>Ana Luiza da Paz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -526,24 +526,24 @@
         <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45080</v>
+        <v>45084</v>
       </c>
       <c r="G3" t="n">
-        <v>5450.52</v>
+        <v>11758.98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>81336</v>
+        <v>70974</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luana Peixoto</t>
+          <t>Maria Vitória Carvalho</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,80 +552,80 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45078</v>
+        <v>45090</v>
       </c>
       <c r="G4" t="n">
-        <v>9537.33</v>
+        <v>3690.48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>81340</v>
+        <v>22494</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Raul Mendes</t>
+          <t>Dr. Felipe Sales</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45083</v>
+        <v>45106</v>
       </c>
       <c r="G5" t="n">
-        <v>7677.22</v>
+        <v>8039.21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17944</v>
+        <v>20938</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Clarice das Neves</t>
+          <t>Vitor da Rosa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45093</v>
+        <v>45097</v>
       </c>
       <c r="G6" t="n">
-        <v>4250.79</v>
+        <v>3221.88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>38226</v>
+        <v>50526</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Noah Farias</t>
+          <t>Dr. Luiz Fernando Jesus</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,31 +635,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45092</v>
+        <v>45087</v>
       </c>
       <c r="G7" t="n">
-        <v>6580.79</v>
+        <v>5457.11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>897</v>
+        <v>25868</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Caio Souza</t>
+          <t>Dr. Lorenzo Almeida</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,100 +668,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="G8" t="n">
-        <v>4393.48</v>
+        <v>5687.73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>98845</v>
+        <v>42664</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sarah da Paz</t>
+          <t>Giovanna Fogaça</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45103</v>
+        <v>45083</v>
       </c>
       <c r="G9" t="n">
-        <v>6110.94</v>
+        <v>4117.19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>92065</v>
+        <v>65567</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Augusto Monteiro</t>
+          <t>Luiz Fernando da Conceição</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45086</v>
+        <v>45106</v>
       </c>
       <c r="G10" t="n">
-        <v>12409.29</v>
+        <v>3592.41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>35168</v>
+        <v>73384</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Thomas Campos</t>
+          <t>Thomas Silva</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45100</v>
+        <v>45103</v>
       </c>
       <c r="G11" t="n">
-        <v>8589.5</v>
+        <v>4792.7</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_29.xlsx
+++ b/data/input/absenteeism_data_29.xlsx
@@ -476,156 +476,156 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>56472</v>
+        <v>13891</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Antônio Carvalho</t>
+          <t>Natália Pinto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45095</v>
+        <v>45105</v>
       </c>
       <c r="G2" t="n">
-        <v>7049.48</v>
+        <v>10220.17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>84746</v>
+        <v>95925</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Luiza da Paz</t>
+          <t>Sabrina Gomes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45084</v>
+        <v>45101</v>
       </c>
       <c r="G3" t="n">
-        <v>11758.98</v>
+        <v>6973.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>70974</v>
+        <v>30262</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maria Vitória Carvalho</t>
+          <t>Sr. Lucas Gabriel Lima</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45090</v>
+        <v>45084</v>
       </c>
       <c r="G4" t="n">
-        <v>3690.48</v>
+        <v>4635.59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>22494</v>
+        <v>59035</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dr. Felipe Sales</t>
+          <t>Nicolas Nunes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45106</v>
+        <v>45084</v>
       </c>
       <c r="G5" t="n">
-        <v>8039.21</v>
+        <v>9566.51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20938</v>
+        <v>17559</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vitor da Rosa</t>
+          <t>Sr. Marcelo da Cruz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45097</v>
+        <v>45089</v>
       </c>
       <c r="G6" t="n">
-        <v>3221.88</v>
+        <v>9641.58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>50526</v>
+        <v>37982</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dr. Luiz Fernando Jesus</t>
+          <t>Mariana Souza</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,31 +635,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45087</v>
+        <v>45089</v>
       </c>
       <c r="G7" t="n">
-        <v>5457.11</v>
+        <v>10878.63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>25868</v>
+        <v>21917</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dr. Lorenzo Almeida</t>
+          <t>Vitor Gabriel Moreira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,22 +668,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45097</v>
+        <v>45082</v>
       </c>
       <c r="G8" t="n">
-        <v>5687.73</v>
+        <v>9673.620000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>42664</v>
+        <v>82557</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Giovanna Fogaça</t>
+          <t>Antônio da Luz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -697,27 +697,27 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45083</v>
+        <v>45079</v>
       </c>
       <c r="G9" t="n">
-        <v>4117.19</v>
+        <v>9984.549999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>65567</v>
+        <v>47521</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luiz Fernando da Conceição</t>
+          <t>Luana Pereira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -729,39 +729,39 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45106</v>
+        <v>45100</v>
       </c>
       <c r="G10" t="n">
-        <v>3592.41</v>
+        <v>5870.09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>73384</v>
+        <v>94556</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Thomas Silva</t>
+          <t>Dr. Matheus da Mata</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45103</v>
       </c>
       <c r="G11" t="n">
-        <v>4792.7</v>
+        <v>3737.38</v>
       </c>
     </row>
   </sheetData>
